--- a/wukong/data/test-excel.xlsx
+++ b/wukong/data/test-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\demo\wukong\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9095D4-4FEF-459F-B077-3F5281375068}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D2E173-31BB-45AB-B530-6ABFF0252EB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1124,7 +1124,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C13" sqref="C11:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1161,7 +1161,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>1</v>
@@ -1191,7 +1191,7 @@
         <v>47</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>35</v>

--- a/wukong/data/test-excel.xlsx
+++ b/wukong/data/test-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\demo\wukong\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D2E173-31BB-45AB-B530-6ABFF0252EB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D606D3B9-CD87-44C1-B97C-3D12F09B1A6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="417">
   <si>
     <t>测试数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,10 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>退出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>open</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -392,15 +388,1285 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试新建日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui自动化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新建一条自动化测试日志的案例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击新建的日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除新建的日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑人将鲸鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新新建的日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="iframecontent"]/form/table/tbody/tr[3]/td[1]/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑页面标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="reply_0_43_input"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="button"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>点击相册按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_album</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击新建相册按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建相册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>相册内置表单切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入相册名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入相册描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>album_information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试相册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试相册案例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入相册标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="tag"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建相册的标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击相册隐私设置超链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置相册隐私为仅自己看见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="menu_top_yj"]/div[1]/h4[1]/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置相册隐私为好友可见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="menu_top_yj"]/div[1]/h4[2]/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置相册隐私确定按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置相册隐私取消按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击创建相册按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="iframecontent"]/form/table/tbody/tr[5]/td[2]/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击上传相片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传相片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理选择相册下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="album_name"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击切换上传方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换上传方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="attach[]"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击确认上传按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="normal_upload"]/tbody/tr[6]/td/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击编辑相册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改相册标签清空输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入新的标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击更新按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击删除相册按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作提示框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action_alert_yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐私设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相片描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="iframecontent"]/form/div[3]/textarea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="iframecontent"]/form/div[3]/p[2]/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击设置封面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\\FILE\\monster.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共1张图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击分享按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_outer_share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清理分享输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击确认分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换至最外层表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入分享标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python自动化实战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入分享标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入分享评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="_ButtonOK_0"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="_ButtonCancel_0"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击取消分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="iframecontent"]/dl[1]/dd[2]/span[4]/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换内置表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击分组按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击创建群组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建群组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_resume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_join_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证加入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入群组名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入群组介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入群组标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_type_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作群组分类下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作加入方式下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动休闲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_logo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传群组logo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UploadButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击确认创建分组按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理创建群组过多提示框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击搜索群组按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索群组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="group_name"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入搜索的群组名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击确认搜索按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="iframecontent"]/table/tbody/tr[4]/td/input[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>点击活动按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入活动名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="iframecontent"]/form/table/tbody/tr[1]/td/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与ui自动化测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动城市省份选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="s1"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动城市选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="s2"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淮安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入活动地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楚州区万达广场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="start_time"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>document.querySelector("#start_time")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>document.querySelector("#end_time")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>document.querySelector("#deadline")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动开始时间jsp脚本处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动结束时间jsp脚本处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动报名截止时间jsp脚本处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入活动开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入活动结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入活动报名截止时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="end_time"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="deadline"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动分类下拉框处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="type_id"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活/聚会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理接受提示框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入活动内置表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入详细内容表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入费用说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入集合地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入着装要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入注意事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万达广场一楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wuji0121@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴口罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回上一层表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch_parentframe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传活动海报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="iframecontent"]/form/table/tbody/tr[8]/td/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动隐私下拉框处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半公开活动，所有人可见, 邀请才能加入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="verify"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择参加活动需要审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入活动信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无忌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="iframecontent"]/form/table/tbody/tr[13]/td[2]/input[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击提交按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击取消活动按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="iframecontent"]/div[4]/div/div[1]/a[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="iframecontent"]/div[4]/div/div[1]/a[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击管理活动按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改活动名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>修改活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>清楚活动名称文本框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>点击发起活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="KINDEDITORBODY"]/p/br[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="KINDEDITORBODY"]/p/br[2]</t>
+  </si>
+  <si>
+    <t>//*[@id="KINDEDITORBODY"]/p/br[3]</t>
+  </si>
+  <si>
+    <t>//*[@id="KINDEDITORBODY"]/p/br[4]</t>
+  </si>
+  <si>
+    <t>//*[@id="KINDEDITORBODY"]/p/br[5]</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>document.querySelector("#KINDEDITORBODY &gt; p &gt; br:nth-child(1)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="public"]</t>
+  </si>
+  <si>
+    <t>/html/body/div/div[3]/div[2]/dl/dt[4]/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击新建成功的相册名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试wuji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试更新相册名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.csdn.net/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试群组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组页面测试案例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个案例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-10-26 22:34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-10-30 22:34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-10-27 22:34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>document.querySelector('#start_time').removeAttribute('readonly')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>document.querySelector('#end_time').removeAttribute('readonly')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>document.querySelector('#deadline').removeAttribute('readonly')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="isns_album:35:!all"]/dd[6]/a[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="isns_album:35:!all"]/dd[6]/a[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“投票”节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_vote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入“投票”内置表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“发起投票”超链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起投票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入“投票标题”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="subject"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“添加投票详细说明”
+超链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加投票详细说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试投票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入“详细说明”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="message"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是“投票”自动化测试案例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="addnewpoll"]/table/tbody[1]/tr[4]/td/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="addnewpoll"]/table/tbody[1]/tr[5]/td/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="addnewpoll"]/table/tbody[1]/tr[6]/td/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入“候选项一”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入“候选项二”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入“候选项三”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web ui自动化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web接口自动化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="addnewpoll"]/table/tbody[3]/tr[1]/td/select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理“可投选项”下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可多选，最多2项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>document.querySelector("#expiration").removeAttribute('readonly')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理“截止时间”时间控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入截止时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="expiration"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“确认”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="addnewpoll"]/table/tbody[5]/tr[2]/td[2]/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择“投票限制”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="addnewpoll"]/table/tbody[3]/tr[3]/td/input[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="addnewpoll"]/table/tbody[3]/tr[4]/td/input[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择“评论限制”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择“悬赏投票”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="addnewpoll"]/table/tbody[3]/tr[5]/td/input[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="makefeed"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择“动态选项”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“删除本投票”超链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除本投票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击新建的投票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理“确认删除”提示框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="_DialogTable_0"]/tbody/tr[2]/td/table/tbody/tr[5]/td/input[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="iframecontent"]/dl/dd[2]/span[3]/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“立即参与”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="iframecontent"]/dl/div/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“去看看”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加候选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击增加候选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入新增的候选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="add_new_option"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app 接口自动化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击修改截至日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改截至日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="_DialogTable_0"]/tbody/tr[2]/td/table/tbody/tr[6]/td/input[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击确认新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击投票总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写投票总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入总结的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="add_summary"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全栈自动化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加悬赏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击追加悬赏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入悬赏总额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="add_award_sum"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入悬赏单额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>//*[@id="add_award_sing"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>点击日期输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expiration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#thisMonthDate &gt; li:nth-child(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间控件处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>document.getElementById("expiration").removeAttribute("readonly");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>document.getElementById("expiration").value="2020-11-19"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-11-20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,6 +1674,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="000000"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -459,7 +1729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -482,6 +1752,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -921,196 +2213,230 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D319630-265C-4B36-BF99-83BE7AC6D982}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="24.21875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="35.109375" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="11"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="40.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="E8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="C11" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>316</v>
+      </c>
       <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1121,380 +2447,565 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD59BD51-A526-477F-9DE0-69AB44172671}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C11:C13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="53.77734375" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="11"/>
+    <col min="2" max="2" width="27.77734375" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="53.77734375" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="C5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="E23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1505,72 +3016,2552 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025EC52F-D43D-4DEC-A6F3-15869C0F7AAD}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="31.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" customWidth="1"/>
+    <col min="5" max="5" width="54.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82859FF1-017E-4652-953B-3ABC33DC5DC7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="46.5546875" customWidth="1"/>
+    <col min="6" max="6" width="38.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DCA74E-E602-4DA8-A61F-9A3D537CA319}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="49.5546875" customWidth="1"/>
+    <col min="6" max="6" width="27.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6540C1F1-3495-4A46-9984-60A0CF2A772D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="79.44140625" customWidth="1"/>
+    <col min="6" max="6" width="59" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605EF08C-F631-4900-9670-BACD09FC2D14}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+    <col min="6" max="6" width="58.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>375</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="G36" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
